--- a/target/test-classes/TestDta/OrangeData.xlsx
+++ b/target/test-classes/TestDta/OrangeData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium9\OranceHRM\src\test\resources\TestDta\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>TC1_CreateEmployeeFromPIM</t>
   </si>
@@ -99,12 +99,16 @@
   </si>
   <si>
     <t>Henry Chase83</t>
+  </si>
+  <si>
+    <t>Henry Chase4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -449,11 +453,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.44140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.88671875"/>
+    <col min="3" max="3" customWidth="true" width="17.88671875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.88671875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
@@ -579,7 +583,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1506,9 +1510,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.33203125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.88671875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.44140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
